--- a/result/gr25_03_simulated/details.xlsx
+++ b/result/gr25_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2256619930267334</v>
+        <v>0.2363035678863525</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.04761866326407</v>
+        <v>94.70037507160487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003904196890070289</v>
+        <v>0.003912046872870529</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003060883144891498</v>
+        <v>0.003142746413903732</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00262759338850889</v>
+        <v>0.002916296946810515</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00262759338850889</v>
+        <v>0.00259675110709333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002357415511821005</v>
+        <v>0.002497111106785256</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002357415511821005</v>
+        <v>0.002329977600918434</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002325882850705951</v>
+        <v>0.002327124338143864</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002201673920466858</v>
+        <v>0.00224909371341043</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002185719756758899</v>
+        <v>0.002120173656072495</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002113791614109089</v>
+        <v>0.002088404292888256</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002065112067381728</v>
+        <v>0.002088404292888256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001866737338861558</v>
+        <v>0.001985790224173586</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001866737338861558</v>
+        <v>0.001985790224173586</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001866737338861558</v>
+        <v>0.001942593634824211</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001854945955136974</v>
+        <v>0.001941730499239112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001852158586959144</v>
+        <v>0.001909091485422056</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001852158586959144</v>
+        <v>0.001900358831564524</v>
       </c>
       <c r="W2" t="n">
-        <v>0.00184594405305784</v>
+        <v>0.001848966505993615</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001816724277798403</v>
+        <v>0.001848966505993615</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001813793736126005</v>
+        <v>0.001846011209972804</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4039108753204346</v>
+        <v>0.2187149524688721</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>91.28816514866412</v>
+        <v>95.20840860236967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0039847095412283</v>
+        <v>0.003824426363668594</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003311684222226566</v>
+        <v>0.003033984057157837</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002910908893587638</v>
+        <v>0.002739035566543026</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002665330024646196</v>
+        <v>0.002691487128578803</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002357189337364676</v>
+        <v>0.002534468417665404</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002203447763282351</v>
+        <v>0.002414690657684051</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002203447763282351</v>
+        <v>0.002227772043741701</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002078569747875086</v>
+        <v>0.002227772043741701</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002078569747875086</v>
+        <v>0.002227772043741701</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002062355571901168</v>
+        <v>0.002167260317866401</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00200059332552395</v>
+        <v>0.00210600103979604</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001987543922837184</v>
+        <v>0.002002549846542588</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001979290224726089</v>
+        <v>0.002002549846542588</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001868603475089288</v>
+        <v>0.001980474195224921</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001868603475089288</v>
+        <v>0.001936667856547072</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001833935340725437</v>
+        <v>0.001936667856547072</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001833935340725437</v>
+        <v>0.001927319104364032</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001802860906873798</v>
+        <v>0.001899896227532381</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001801976994485128</v>
+        <v>0.001895732526166729</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001779496396660119</v>
+        <v>0.001855914397707011</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3339965343475342</v>
+        <v>0.2548689842224121</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>101.7578571328631</v>
+        <v>96.31415283774004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004011573502118151</v>
+        <v>0.004088656908542934</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003318832414870715</v>
+        <v>0.003188519095289491</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002986619469461659</v>
+        <v>0.002826993516747557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002518623282041559</v>
+        <v>0.00253370270048579</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002370823113609266</v>
+        <v>0.002510071378114267</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002328216616083152</v>
+        <v>0.002436008553278002</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002278136336045617</v>
+        <v>0.002307062173669521</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0022185410883077</v>
+        <v>0.002304529120360171</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002216501602193056</v>
+        <v>0.00213263695706378</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002197208909365286</v>
+        <v>0.00213263695706378</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002156745368014398</v>
+        <v>0.002044769632843683</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00214588378787251</v>
+        <v>0.00201501180122241</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002114646713567109</v>
+        <v>0.002006823105361919</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002066680269677572</v>
+        <v>0.002006823105361919</v>
       </c>
       <c r="T4" t="n">
-        <v>0.002048446083394948</v>
+        <v>0.001981057142960633</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00204607574329039</v>
+        <v>0.001961654236049007</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002010857243027029</v>
+        <v>0.001953096258322533</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002004609582073014</v>
+        <v>0.001927873118816848</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001993507661825444</v>
+        <v>0.001887710368261223</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001983583959704934</v>
+        <v>0.001877468866232749</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3109960556030273</v>
+        <v>0.2595765590667725</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>95.99918070586682</v>
+        <v>94.15481710219319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004057313274389285</v>
+        <v>0.004088656908542934</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003345152644531261</v>
+        <v>0.003167128781683876</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002946028231833932</v>
+        <v>0.002650386766786983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002563366214762865</v>
+        <v>0.002650386766786983</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00243147973090038</v>
+        <v>0.002569572591692441</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00243147973090038</v>
+        <v>0.002471967140042116</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00243147973090038</v>
+        <v>0.002327637697703872</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002429386499604403</v>
+        <v>0.00221914969507124</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002399599871336618</v>
+        <v>0.00221914969507124</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002298436614694802</v>
+        <v>0.00214986476877929</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002189698339270992</v>
+        <v>0.002089829950233025</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002100009204521867</v>
+        <v>0.002045623023960504</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001986409527046056</v>
+        <v>0.001959823391023686</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001981074449117318</v>
+        <v>0.001946659754929264</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001954554518521518</v>
+        <v>0.001925868125606896</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001944429000595172</v>
+        <v>0.001895647131779101</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0019298865479992</v>
+        <v>0.001881005564019717</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001914759881544729</v>
+        <v>0.001862541596680446</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001895507547521232</v>
+        <v>0.001862541596680446</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001871329058593895</v>
+        <v>0.001835376551699672</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2557401657104492</v>
+        <v>0.4395735263824463</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>89.09847465576058</v>
+        <v>97.68402304501797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003943479631657805</v>
+        <v>0.003827928855980839</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003259548756161758</v>
+        <v>0.003355105265041469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002618340692223102</v>
+        <v>0.002956740630442933</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002478106729331787</v>
+        <v>0.002812607691111194</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002351887793655527</v>
+        <v>0.002633427752053182</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002351887793655527</v>
+        <v>0.002499946436668249</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00222775555244628</v>
+        <v>0.002212691053380368</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002027677441969394</v>
+        <v>0.002212691053380368</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002027677441969394</v>
+        <v>0.002144795249100991</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002027677441969394</v>
+        <v>0.002144795249100991</v>
       </c>
       <c r="P6" t="n">
-        <v>0.001961690392943683</v>
+        <v>0.002103065095640086</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001959806639743939</v>
+        <v>0.002103065095640086</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001873633970340645</v>
+        <v>0.002089576384692727</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001809454913636443</v>
+        <v>0.002027548278817695</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001809454913636443</v>
+        <v>0.002012183148704707</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001800455648026471</v>
+        <v>0.001985750255579169</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001774393665397056</v>
+        <v>0.00195852799214739</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001766078824632635</v>
+        <v>0.00195852799214739</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001744090392704345</v>
+        <v>0.001931394466499053</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001736812371457321</v>
+        <v>0.001904171989181636</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.253756046295166</v>
+        <v>0.4772224426269531</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>88.55934771517059</v>
+        <v>97.425789983492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003983538481046827</v>
+        <v>0.004088656908542934</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003284006876575895</v>
+        <v>0.003008644284585026</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002863853366593476</v>
+        <v>0.002796784694953538</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002516777769287515</v>
+        <v>0.002625403076270596</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002358058165797263</v>
+        <v>0.002425804352118234</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002358058165797263</v>
+        <v>0.002395997927293212</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002183977312525866</v>
+        <v>0.002332061780499098</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002152648280505523</v>
+        <v>0.002261076352156292</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002101679163064028</v>
+        <v>0.002257144189844238</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002030361563487793</v>
+        <v>0.002130817816102781</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001982228665176229</v>
+        <v>0.002119179601236167</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001926548461193717</v>
+        <v>0.00206094585937911</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001926548461193717</v>
+        <v>0.002035854849792728</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001822083622683938</v>
+        <v>0.001997092587081678</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001822083622683938</v>
+        <v>0.001997092587081678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001762899207429197</v>
+        <v>0.001983462694208097</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001762899207429197</v>
+        <v>0.00193242293553109</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001761463318034657</v>
+        <v>0.00193242293553109</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001736287086249092</v>
+        <v>0.001907114239150468</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001726303074369797</v>
+        <v>0.001899138206305886</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2209556102752686</v>
+        <v>0.2981743812561035</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>86.60202441258662</v>
+        <v>89.91431406558331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003920796879628022</v>
+        <v>0.003937131508040831</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003311752914471238</v>
+        <v>0.002849996082264698</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002989533544929804</v>
+        <v>0.002395031923795181</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002722383947721931</v>
+        <v>0.002395031923795181</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002503902838674917</v>
+        <v>0.002395031923795181</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002318046295362502</v>
+        <v>0.002190244324082543</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002059458936704044</v>
+        <v>0.002190244324082543</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002059458936704044</v>
+        <v>0.002138597953042683</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002025941089865461</v>
+        <v>0.002077583613136261</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001879810071893471</v>
+        <v>0.00199726119420721</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001879810071893471</v>
+        <v>0.001876410596006913</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001840719293746201</v>
+        <v>0.001876410596006913</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001798396261375871</v>
+        <v>0.001876410596006913</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001798396261375871</v>
+        <v>0.001876410596006913</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001798396261375871</v>
+        <v>0.001866718431505553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001723169329407861</v>
+        <v>0.001858388205566892</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001723169329407861</v>
+        <v>0.001797244979438526</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00171100734428008</v>
+        <v>0.001787082287252228</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00170603838826216</v>
+        <v>0.0017788459513857</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001688148624027029</v>
+        <v>0.001752715673793046</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2351775169372559</v>
+        <v>0.3364613056182861</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>91.07804138915344</v>
+        <v>94.26018845775252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004044775915779532</v>
+        <v>0.003961599652601022</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003104015602506262</v>
+        <v>0.003147208202534984</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002875360514906461</v>
+        <v>0.00276136930527132</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002687283218283393</v>
+        <v>0.002709413185633462</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002432819862141342</v>
+        <v>0.002582009139744958</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002318001504745109</v>
+        <v>0.002460449475662389</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002209618002354198</v>
+        <v>0.002376377655886418</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002172032617451342</v>
+        <v>0.002376377655886418</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002092468497947081</v>
+        <v>0.002362633180331415</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002064493349311975</v>
+        <v>0.002125105205214231</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001974052888023212</v>
+        <v>0.002094930800245903</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001928279180522411</v>
+        <v>0.002052766269387834</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001928279180522411</v>
+        <v>0.002023483336081333</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001928279180522411</v>
+        <v>0.002023346916692382</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001871603732432769</v>
+        <v>0.001950313927089112</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001859630118899828</v>
+        <v>0.001927779234327523</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001803248323631123</v>
+        <v>0.001892164536685408</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001803248323631123</v>
+        <v>0.001888892963177047</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001794168016590686</v>
+        <v>0.00186780085777451</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001775400416942562</v>
+        <v>0.001837430574225195</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3280186653137207</v>
+        <v>0.2732524871826172</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>91.19936745638006</v>
+        <v>98.45973366294675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003985215713631416</v>
+        <v>0.004088656908542934</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003028178424250739</v>
+        <v>0.003420132961171325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002835140291521078</v>
+        <v>0.002737622988815733</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002398762650674244</v>
+        <v>0.002737622988815733</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002222851973769613</v>
+        <v>0.002517870783216685</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00217788828955381</v>
+        <v>0.002517870783216685</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00201454843140516</v>
+        <v>0.002480363029723047</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00201454843140516</v>
+        <v>0.002327147550051953</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00201454843140516</v>
+        <v>0.002227114202696168</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001990035649563311</v>
+        <v>0.002227114202696168</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001990035649563311</v>
+        <v>0.002194403876291667</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001990035649563311</v>
+        <v>0.00215923938622246</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001954342842227366</v>
+        <v>0.002126004791515649</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001954342842227366</v>
+        <v>0.002002562540642137</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001877032994562808</v>
+        <v>0.002002562540642137</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001870437232310403</v>
+        <v>0.002002562540642137</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001801239291556496</v>
+        <v>0.001950618879962856</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001801239291556496</v>
+        <v>0.001950618879962856</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001780549660003766</v>
+        <v>0.00192612236489938</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001777765447492788</v>
+        <v>0.001919293053858611</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2439930438995361</v>
+        <v>0.2324929237365723</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>94.23181986373311</v>
+        <v>89.19542065313908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003920065150201022</v>
+        <v>0.004088656908542934</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003122749444388659</v>
+        <v>0.003099956960999101</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003076984636632457</v>
+        <v>0.002996813960896625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002655826483691303</v>
+        <v>0.002574166444560778</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002606005721691441</v>
+        <v>0.002393113738865556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002424606126748725</v>
+        <v>0.002350434077441952</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002383170509258572</v>
+        <v>0.002265976673724578</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002308284465522914</v>
+        <v>0.002015734896956868</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002179867584942952</v>
+        <v>0.00197154275520148</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002141636386899137</v>
+        <v>0.00189728674122431</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002090379553354363</v>
+        <v>0.001892257601084317</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002090379553354363</v>
+        <v>0.001856232661016248</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00198353374058655</v>
+        <v>0.001855731421051743</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001981511956319915</v>
+        <v>0.001836981112199098</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001931328041862064</v>
+        <v>0.001836981112199098</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00189119438629019</v>
+        <v>0.001799957763047011</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001882619988194131</v>
+        <v>0.001770140955077348</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001851472155663005</v>
+        <v>0.001764576782231431</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001851472155663005</v>
+        <v>0.001747065291152222</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001836877580189729</v>
+        <v>0.001738702156981268</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_03_simulated/details.xlsx
+++ b/result/gr25_03_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2363035678863525</v>
+        <v>0.4879930019378662</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94.70037507160487</v>
+        <v>75.47239478450501</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003912046872870529</v>
+        <v>0.004279589145457027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003142746413903732</v>
+        <v>0.002972863424041272</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002916296946810515</v>
+        <v>0.002356498816351619</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00259675110709333</v>
+        <v>0.002196903151732868</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002497111106785256</v>
+        <v>0.002196903151732868</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002329977600918434</v>
+        <v>0.002196903151732868</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002327124338143864</v>
+        <v>0.002095163540351789</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00224909371341043</v>
+        <v>0.002042883576967383</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002120173656072495</v>
+        <v>0.001900139670317435</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002088404292888256</v>
+        <v>0.001900139670317435</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002088404292888256</v>
+        <v>0.001900139670317435</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001985790224173586</v>
+        <v>0.001900139670317435</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001985790224173586</v>
+        <v>0.001682157296896693</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001942593634824211</v>
+        <v>0.001682157296896693</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001941730499239112</v>
+        <v>0.001572425425249419</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001909091485422056</v>
+        <v>0.001550411410071621</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001900358831564524</v>
+        <v>0.001550411410071621</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001848966505993615</v>
+        <v>0.001502005590991083</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001848966505993615</v>
+        <v>0.001493583462720318</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001846011209972804</v>
+        <v>0.001471196779425049</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2187149524688721</v>
+        <v>0.5249998569488525</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.20840860236967</v>
+        <v>79.87253807417983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003824426363668594</v>
+        <v>0.004288146682722698</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003033984057157837</v>
+        <v>0.002961314588823508</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002739035566543026</v>
+        <v>0.00259884869322035</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002691487128578803</v>
+        <v>0.002423312668613885</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002534468417665404</v>
+        <v>0.002423312668613885</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002414690657684051</v>
+        <v>0.002246510042613024</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002227772043741701</v>
+        <v>0.001913138130489615</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002227772043741701</v>
+        <v>0.001913138130489615</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002227772043741701</v>
+        <v>0.001770737406600142</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002167260317866401</v>
+        <v>0.001770737406600142</v>
       </c>
       <c r="P3" t="n">
-        <v>0.00210600103979604</v>
+        <v>0.001682547516583332</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002002549846542588</v>
+        <v>0.001682547516583332</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002002549846542588</v>
+        <v>0.0016156032200068</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001980474195224921</v>
+        <v>0.0016156032200068</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001936667856547072</v>
+        <v>0.001593486296888197</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001936667856547072</v>
+        <v>0.00158399732875918</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001927319104364032</v>
+        <v>0.001579179392829352</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001899896227532381</v>
+        <v>0.001565426010752047</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001895732526166729</v>
+        <v>0.001559024844302388</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001855914397707011</v>
+        <v>0.00155696955310292</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2548689842224121</v>
+        <v>0.3839993476867676</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>96.31415283774004</v>
+        <v>81.30939133463289</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004088656908542934</v>
+        <v>0.004229258877639737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003188519095289491</v>
+        <v>0.003342676720869958</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002826993516747557</v>
+        <v>0.002480200667251429</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00253370270048579</v>
+        <v>0.002480200667251429</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002510071378114267</v>
+        <v>0.002480200667251429</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002436008553278002</v>
+        <v>0.002353892344172531</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002307062173669521</v>
+        <v>0.00232882162663681</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002304529120360171</v>
+        <v>0.001961494460421718</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00213263695706378</v>
+        <v>0.001961494460421718</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00213263695706378</v>
+        <v>0.001953882973847742</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002044769632843683</v>
+        <v>0.001903203595835829</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00201501180122241</v>
+        <v>0.00188225023550554</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002006823105361919</v>
+        <v>0.001870307968947812</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002006823105361919</v>
+        <v>0.001818391634143893</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001981057142960633</v>
+        <v>0.001709236584771083</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001961654236049007</v>
+        <v>0.001709236584771083</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001953096258322533</v>
+        <v>0.001666505883086467</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001927873118816848</v>
+        <v>0.001637579707364662</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001887710368261223</v>
+        <v>0.00160883526409487</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001877468866232749</v>
+        <v>0.001584978388589335</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2595765590667725</v>
+        <v>0.3659930229187012</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>94.15481710219319</v>
+        <v>78.66525120359984</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004088656908542934</v>
+        <v>0.004089854668626796</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003167128781683876</v>
+        <v>0.003226298648492162</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002650386766786983</v>
+        <v>0.002712361071711034</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002650386766786983</v>
+        <v>0.002284534816118364</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002569572591692441</v>
+        <v>0.002174935472780311</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002471967140042116</v>
+        <v>0.002022385284955186</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002327637697703872</v>
+        <v>0.001768586136797778</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00221914969507124</v>
+        <v>0.001717163249246531</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00221914969507124</v>
+        <v>0.001681251534613601</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00214986476877929</v>
+        <v>0.001681251534613601</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002089829950233025</v>
+        <v>0.001681251534613601</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002045623023960504</v>
+        <v>0.001621727749781967</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001959823391023686</v>
+        <v>0.001621727749781967</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001946659754929264</v>
+        <v>0.001621727749781967</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001925868125606896</v>
+        <v>0.001600265392164189</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001895647131779101</v>
+        <v>0.001578415138564485</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001881005564019717</v>
+        <v>0.001566037571066442</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001862541596680446</v>
+        <v>0.001563037498513421</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001862541596680446</v>
+        <v>0.001537763204898588</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001835376551699672</v>
+        <v>0.001533435695976605</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4395735263824463</v>
+        <v>0.3900017738342285</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>97.68402304501797</v>
+        <v>80.40645527661945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003827928855980839</v>
+        <v>0.00395257805847371</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003355105265041469</v>
+        <v>0.002869890448008141</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002956740630442933</v>
+        <v>0.002869890448008141</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002812607691111194</v>
+        <v>0.002453492079144553</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002633427752053182</v>
+        <v>0.002307262246005146</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002499946436668249</v>
+        <v>0.002132370505371698</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002212691053380368</v>
+        <v>0.001924185823046327</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002212691053380368</v>
+        <v>0.001856003666718436</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002144795249100991</v>
+        <v>0.001856003666718436</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002144795249100991</v>
+        <v>0.001856003666718436</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002103065095640086</v>
+        <v>0.001842515574934043</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002103065095640086</v>
+        <v>0.001830131184793877</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002089576384692727</v>
+        <v>0.001719671307761536</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002027548278817695</v>
+        <v>0.001706311772232211</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002012183148704707</v>
+        <v>0.001659002164157682</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001985750255579169</v>
+        <v>0.001659002164157682</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00195852799214739</v>
+        <v>0.001645105340877089</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00195852799214739</v>
+        <v>0.001615934561807122</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001931394466499053</v>
+        <v>0.001583811641952916</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001904171989181636</v>
+        <v>0.001567377295840535</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4772224426269531</v>
+        <v>0.3389954566955566</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>97.425789983492</v>
+        <v>84.00453912342891</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004088656908542934</v>
+        <v>0.004288146682722698</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003008644284585026</v>
+        <v>0.00286273414262498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002796784694953538</v>
+        <v>0.002621704162942988</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002625403076270596</v>
+        <v>0.002272015642620299</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002425804352118234</v>
+        <v>0.002098305586200775</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002395997927293212</v>
+        <v>0.002043731608008629</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002332061780499098</v>
+        <v>0.001750267856295019</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002261076352156292</v>
+        <v>0.001750267856295019</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002257144189844238</v>
+        <v>0.001732031042076527</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002130817816102781</v>
+        <v>0.001732031042076527</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002119179601236167</v>
+        <v>0.001732031042076527</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00206094585937911</v>
+        <v>0.001732031042076527</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002035854849792728</v>
+        <v>0.001725424843201867</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001997092587081678</v>
+        <v>0.001725424843201867</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001997092587081678</v>
+        <v>0.001722310827168101</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001983462694208097</v>
+        <v>0.001685242720063912</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00193242293553109</v>
+        <v>0.001672789801775498</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00193242293553109</v>
+        <v>0.001655289970399147</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001907114239150468</v>
+        <v>0.001647010135888581</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001899138206305886</v>
+        <v>0.00163751538252298</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2981743812561035</v>
+        <v>0.3300042152404785</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>89.91431406558331</v>
+        <v>80.69385872648127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003937131508040831</v>
+        <v>0.004003341928958737</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002849996082264698</v>
+        <v>0.003115575822753173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002395031923795181</v>
+        <v>0.002528414367978852</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002395031923795181</v>
+        <v>0.002347888577006214</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002395031923795181</v>
+        <v>0.002257938725685206</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002190244324082543</v>
+        <v>0.002102911413947697</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002190244324082543</v>
+        <v>0.002102071701641475</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002138597953042683</v>
+        <v>0.00204320694280386</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002077583613136261</v>
+        <v>0.001933941226160203</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00199726119420721</v>
+        <v>0.001916488846147604</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001876410596006913</v>
+        <v>0.001703299306794925</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001876410596006913</v>
+        <v>0.001699779950309431</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001876410596006913</v>
+        <v>0.001699779950309431</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001876410596006913</v>
+        <v>0.001639753777054052</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001866718431505553</v>
+        <v>0.001638451200585557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001858388205566892</v>
+        <v>0.001617845303297297</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001797244979438526</v>
+        <v>0.001600277771013692</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001787082287252228</v>
+        <v>0.001592937948735871</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0017788459513857</v>
+        <v>0.00158230785105609</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001752715673793046</v>
+        <v>0.00157297970227059</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3364613056182861</v>
+        <v>0.4199953079223633</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>94.26018845775252</v>
+        <v>81.27112977465185</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003961599652601022</v>
+        <v>0.003852812270059351</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003147208202534984</v>
+        <v>0.003109075006972059</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00276136930527132</v>
+        <v>0.002462799916452727</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002709413185633462</v>
+        <v>0.002306601379005214</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002582009139744958</v>
+        <v>0.002250743729020211</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002460449475662389</v>
+        <v>0.002221761473015098</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002376377655886418</v>
+        <v>0.002103156410040811</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002376377655886418</v>
+        <v>0.002103156410040811</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002362633180331415</v>
+        <v>0.002103156410040811</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002125105205214231</v>
+        <v>0.002103156410040811</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002094930800245903</v>
+        <v>0.002019959851137105</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.002052766269387834</v>
+        <v>0.001951134997145937</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002023483336081333</v>
+        <v>0.001880008650122616</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002023346916692382</v>
+        <v>0.00175090749297853</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001950313927089112</v>
+        <v>0.001744102459913734</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001927779234327523</v>
+        <v>0.001672894978876508</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001892164536685408</v>
+        <v>0.001668802419370226</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001888892963177047</v>
+        <v>0.001641286386869017</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00186780085777451</v>
+        <v>0.001584911750709665</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001837430574225195</v>
+        <v>0.001584232549213486</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2732524871826172</v>
+        <v>0.4850020408630371</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>98.45973366294675</v>
+        <v>80.75011687163533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004088656908542934</v>
+        <v>0.004192849859966024</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003420132961171325</v>
+        <v>0.003152893982304248</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002737622988815733</v>
+        <v>0.002924202128650289</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002737622988815733</v>
+        <v>0.002544878685107478</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002517870783216685</v>
+        <v>0.002138551343546514</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002517870783216685</v>
+        <v>0.002138551343546514</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002480363029723047</v>
+        <v>0.002138551343546514</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002327147550051953</v>
+        <v>0.001901194030747629</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002227114202696168</v>
+        <v>0.001901194030747629</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002227114202696168</v>
+        <v>0.001863372389907383</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002194403876291667</v>
+        <v>0.001811611992414763</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00215923938622246</v>
+        <v>0.001791381833890729</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002126004791515649</v>
+        <v>0.001747643140686591</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002002562540642137</v>
+        <v>0.001665524231496439</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002002562540642137</v>
+        <v>0.001665524231496439</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002002562540642137</v>
+        <v>0.001623000525289621</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001950618879962856</v>
+        <v>0.001590211976360335</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001950618879962856</v>
+        <v>0.001583359212431477</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00192612236489938</v>
+        <v>0.001576893198723508</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001919293053858611</v>
+        <v>0.001574076352273593</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2324929237365723</v>
+        <v>0.4519975185394287</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>89.19542065313908</v>
+        <v>68.58527101840627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004088656908542934</v>
+        <v>0.004219412379640493</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003099956960999101</v>
+        <v>0.002940037068640565</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002996813960896625</v>
+        <v>0.002427784149640962</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002574166444560778</v>
+        <v>0.002282630553810187</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002393113738865556</v>
+        <v>0.001992220312447785</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002350434077441952</v>
+        <v>0.001992220312447785</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002265976673724578</v>
+        <v>0.001992220312447785</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002015734896956868</v>
+        <v>0.001880759086960497</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00197154275520148</v>
+        <v>0.001855474186040648</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00189728674122431</v>
+        <v>0.00165072724440749</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001892257601084317</v>
+        <v>0.00165072724440749</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001856232661016248</v>
+        <v>0.001641769004731754</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001855731421051743</v>
+        <v>0.001629436826836657</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001836981112199098</v>
+        <v>0.00151714131197445</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001836981112199098</v>
+        <v>0.001458855479752166</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001799957763047011</v>
+        <v>0.001434413711092887</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001770140955077348</v>
+        <v>0.001421519844227279</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001764576782231431</v>
+        <v>0.001408993949470292</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001747065291152222</v>
+        <v>0.001374429560295695</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001738702156981268</v>
+        <v>0.001336944854159966</v>
       </c>
     </row>
   </sheetData>
